--- a/reference/table_html/table2/Core6ResourcesTable20231023.xlsx
+++ b/reference/table_html/table2/Core6ResourcesTable20231023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/table_html/table2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4475A94C-8FEF-0047-847F-234A19BAA5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE5FCA8-123C-6C4D-B2A3-017161083945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53260" yWindow="0" windowWidth="38120" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="871">
   <si>
     <t>要素Lv1</t>
   </si>
@@ -5415,10 +5415,6 @@
   </si>
   <si>
     <t>"1318814790"</t>
-    <phoneticPr fontId="25"/>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir&lt;br&gt;/core/IdSystem/insurance-medical-institution-no</t>
     <phoneticPr fontId="25"/>
   </si>
   <si>
@@ -10508,6 +10504,57 @@
     <xf numFmtId="0" fontId="22" fillId="46" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="47" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="46" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="24" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -10544,59 +10591,8 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="47" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="46" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="24" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -10974,17 +10970,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="316" t="s">
-        <v>726</v>
-      </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="316"/>
-      <c r="I1" s="316"/>
+      <c r="A1" s="333" t="s">
+        <v>725</v>
+      </c>
+      <c r="B1" s="333"/>
+      <c r="C1" s="333"/>
+      <c r="D1" s="333"/>
+      <c r="E1" s="333"/>
+      <c r="F1" s="333"/>
+      <c r="G1" s="333"/>
+      <c r="H1" s="333"/>
+      <c r="I1" s="333"/>
     </row>
     <row r="2" spans="1:12" ht="75">
       <c r="A2" s="1" t="s">
@@ -11096,13 +11092,13 @@
         <v>20</v>
       </c>
       <c r="G6" s="21" t="s">
+        <v>742</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="I6" s="286" t="s">
         <v>743</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="I6" s="286" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -11144,7 +11140,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>11</v>
@@ -11247,7 +11243,7 @@
       </c>
       <c r="F13" s="75"/>
       <c r="G13" s="309" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H13" s="52"/>
       <c r="I13" s="289"/>
@@ -11269,7 +11265,7 @@
       <c r="H14" s="298"/>
       <c r="I14" s="299"/>
       <c r="L14" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="133" customHeight="1">
@@ -11288,13 +11284,13 @@
         <v>25</v>
       </c>
       <c r="G15" s="278" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H15" s="206" t="s">
         <v>406</v>
       </c>
       <c r="I15" s="288" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="26">
@@ -11342,7 +11338,7 @@
         <v>406</v>
       </c>
       <c r="I17" s="290" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="27" thickBot="1">
@@ -11363,7 +11359,7 @@
         <v>442</v>
       </c>
       <c r="G18" s="280" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H18" s="165" t="s">
         <v>617</v>
@@ -11386,7 +11382,7 @@
         <v>280</v>
       </c>
       <c r="G19" s="277" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H19" s="208"/>
       <c r="I19" s="287"/>
@@ -11407,13 +11403,13 @@
         <v>25</v>
       </c>
       <c r="G20" s="278" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H20" s="206" t="s">
         <v>406</v>
       </c>
       <c r="I20" s="292" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="31" thickBot="1">
@@ -11432,7 +11428,7 @@
         <v>233</v>
       </c>
       <c r="G21" s="279" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H21" s="52"/>
       <c r="I21" s="289"/>
@@ -11455,7 +11451,7 @@
         <v>499</v>
       </c>
       <c r="G22" s="279" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H22" s="67"/>
       <c r="I22" s="289"/>
@@ -11509,7 +11505,7 @@
         <v>442</v>
       </c>
       <c r="G24" s="279" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H24" s="52" t="s">
         <v>617</v>
@@ -11586,7 +11582,7 @@
         <v>39</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="286"/>
@@ -11607,7 +11603,7 @@
         <v>25</v>
       </c>
       <c r="G28" s="281" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>11</v>
@@ -11655,7 +11651,7 @@
         <v>47</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="286"/>
@@ -11797,7 +11793,7 @@
         <v>47</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="286"/>
@@ -11962,7 +11958,7 @@
         <v>29</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>17</v>
@@ -11985,7 +11981,7 @@
         <v>29</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>17</v>
@@ -12154,13 +12150,13 @@
         <v>476</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I51" s="286" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="210">
@@ -12171,13 +12167,13 @@
       <c r="E52" s="315"/>
       <c r="F52" s="6"/>
       <c r="G52" s="21" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I52" s="286" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="90">
@@ -12211,7 +12207,7 @@
       <c r="E54" s="14"/>
       <c r="F54" s="6"/>
       <c r="G54" s="21" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>17</v>
@@ -13188,7 +13184,7 @@
         <v>17</v>
       </c>
       <c r="I95" s="286" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="30">
@@ -13421,7 +13417,7 @@
         <v>17</v>
       </c>
       <c r="I104" s="286" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="30">
@@ -13623,8 +13619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBECD93-FC6E-E74E-9740-51BFFDF6F421}">
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -13639,17 +13635,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="316" t="s">
-        <v>726</v>
-      </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="316"/>
-      <c r="I1" s="316"/>
+      <c r="A1" s="333" t="s">
+        <v>725</v>
+      </c>
+      <c r="B1" s="333"/>
+      <c r="C1" s="333"/>
+      <c r="D1" s="333"/>
+      <c r="E1" s="333"/>
+      <c r="F1" s="333"/>
+      <c r="G1" s="333"/>
+      <c r="H1" s="333"/>
+      <c r="I1" s="333"/>
     </row>
     <row r="2" spans="1:12" ht="75">
       <c r="A2" s="1" t="s">
@@ -13692,7 +13688,7 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>11</v>
@@ -13761,13 +13757,13 @@
         <v>20</v>
       </c>
       <c r="G6" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="I6" s="286" t="s">
         <v>741</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="I6" s="286" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -13863,7 +13859,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>11</v>
@@ -13966,7 +13962,7 @@
       </c>
       <c r="F15" s="75"/>
       <c r="G15" s="309" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H15" s="52"/>
       <c r="I15" s="289"/>
@@ -13988,7 +13984,7 @@
       <c r="H16" s="298"/>
       <c r="I16" s="299"/>
       <c r="L16" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="133" customHeight="1">
@@ -14007,13 +14003,13 @@
         <v>25</v>
       </c>
       <c r="G17" s="278" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H17" s="206" t="s">
         <v>406</v>
       </c>
       <c r="I17" s="288" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="35" customHeight="1">
@@ -14061,7 +14057,7 @@
         <v>406</v>
       </c>
       <c r="I19" s="207" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="27" thickBot="1">
@@ -14082,7 +14078,7 @@
         <v>442</v>
       </c>
       <c r="G20" s="60" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H20" s="165" t="s">
         <v>617</v>
@@ -14105,7 +14101,7 @@
         <v>280</v>
       </c>
       <c r="G21" s="277" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H21" s="208"/>
       <c r="I21" s="68"/>
@@ -14126,13 +14122,13 @@
         <v>25</v>
       </c>
       <c r="G22" s="205" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H22" s="206" t="s">
         <v>406</v>
       </c>
       <c r="I22" s="209" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="31" thickBot="1">
@@ -14151,7 +14147,7 @@
         <v>233</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H23" s="52"/>
       <c r="I23" s="58"/>
@@ -14174,7 +14170,7 @@
         <v>499</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H24" s="67"/>
       <c r="I24" s="58"/>
@@ -14305,7 +14301,7 @@
         <v>39</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="9"/>
@@ -14326,7 +14322,7 @@
         <v>25</v>
       </c>
       <c r="G30" s="281" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>11</v>
@@ -14374,7 +14370,7 @@
         <v>47</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="9"/>
@@ -14658,7 +14654,7 @@
         <v>29</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>17</v>
@@ -14725,7 +14721,7 @@
         <v>22</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="9"/>
@@ -14748,13 +14744,13 @@
         <v>25</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -14827,7 +14823,7 @@
         <v>43</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>17</v>
@@ -14873,13 +14869,13 @@
         <v>476</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="210">
@@ -14890,13 +14886,13 @@
       <c r="E54" s="14"/>
       <c r="F54" s="6"/>
       <c r="G54" s="21" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I54" s="286" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="90">
@@ -14953,7 +14949,7 @@
         <v>81</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="9"/>
@@ -15505,7 +15501,7 @@
         <v>81</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="9"/>
@@ -15620,50 +15616,50 @@
       <c r="I85" s="30"/>
     </row>
     <row r="86" spans="1:9" ht="28">
-      <c r="A86" s="321"/>
-      <c r="B86" s="317" t="s">
+      <c r="A86" s="338"/>
+      <c r="B86" s="334" t="s">
         <v>305</v>
       </c>
-      <c r="C86" s="317"/>
-      <c r="D86" s="317"/>
-      <c r="E86" s="317" t="s">
+      <c r="C86" s="334"/>
+      <c r="D86" s="334"/>
+      <c r="E86" s="334" t="s">
         <v>46</v>
       </c>
-      <c r="F86" s="317" t="s">
+      <c r="F86" s="334" t="s">
         <v>47</v>
       </c>
-      <c r="G86" s="317" t="s">
+      <c r="G86" s="334" t="s">
         <v>306</v>
       </c>
-      <c r="H86" s="318" t="s">
+      <c r="H86" s="335" t="s">
         <v>257</v>
       </c>
       <c r="I86" s="30" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="321"/>
-      <c r="B87" s="317"/>
-      <c r="C87" s="317"/>
-      <c r="D87" s="317"/>
-      <c r="E87" s="317"/>
-      <c r="F87" s="317"/>
-      <c r="G87" s="317"/>
-      <c r="H87" s="319"/>
+      <c r="A87" s="338"/>
+      <c r="B87" s="334"/>
+      <c r="C87" s="334"/>
+      <c r="D87" s="334"/>
+      <c r="E87" s="334"/>
+      <c r="F87" s="334"/>
+      <c r="G87" s="334"/>
+      <c r="H87" s="336"/>
       <c r="I87" s="30" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="321"/>
-      <c r="B88" s="317"/>
-      <c r="C88" s="317"/>
-      <c r="D88" s="317"/>
-      <c r="E88" s="317"/>
-      <c r="F88" s="317"/>
-      <c r="G88" s="317"/>
-      <c r="H88" s="320"/>
+      <c r="A88" s="338"/>
+      <c r="B88" s="334"/>
+      <c r="C88" s="334"/>
+      <c r="D88" s="334"/>
+      <c r="E88" s="334"/>
+      <c r="F88" s="334"/>
+      <c r="G88" s="334"/>
+      <c r="H88" s="337"/>
       <c r="I88" s="30" t="s">
         <v>248</v>
       </c>
@@ -15745,7 +15741,7 @@
       </c>
       <c r="H92" s="29"/>
       <c r="I92" s="30" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -15867,8 +15863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAA13D8-BBCA-8249-9865-5E438A955DB5}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -15886,18 +15882,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" customFormat="1" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="316" t="s">
-        <v>726</v>
-      </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="316"/>
-      <c r="I1" s="316"/>
-      <c r="J1" s="322"/>
+      <c r="A1" s="333" t="s">
+        <v>725</v>
+      </c>
+      <c r="B1" s="333"/>
+      <c r="C1" s="333"/>
+      <c r="D1" s="333"/>
+      <c r="E1" s="333"/>
+      <c r="F1" s="333"/>
+      <c r="G1" s="333"/>
+      <c r="H1" s="333"/>
+      <c r="I1" s="333"/>
+      <c r="J1" s="339"/>
     </row>
     <row r="2" spans="1:10" ht="76" thickBot="1">
       <c r="A2" s="106" t="s">
@@ -16014,13 +16010,13 @@
         <v>20</v>
       </c>
       <c r="H6" s="21" t="s">
+        <v>755</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="J6" s="286" t="s">
         <v>756</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="J6" s="286" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="135" customFormat="1">
@@ -16064,7 +16060,7 @@
         <v>25</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I8" s="43" t="s">
         <v>11</v>
@@ -16192,7 +16188,7 @@
       </c>
       <c r="G14" s="199"/>
       <c r="H14" s="200" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I14" s="201"/>
       <c r="J14" s="202"/>
@@ -16232,13 +16228,13 @@
         <v>25</v>
       </c>
       <c r="H16" s="278" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I16" s="206" t="s">
         <v>406</v>
       </c>
       <c r="J16" s="288" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="17" spans="1:10" customFormat="1" ht="35" customHeight="1">
@@ -16288,7 +16284,7 @@
         <v>406</v>
       </c>
       <c r="J18" s="207" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:10" customFormat="1" ht="21" thickBot="1">
@@ -16310,7 +16306,7 @@
         <v>442</v>
       </c>
       <c r="H19" s="60" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I19" s="165" t="s">
         <v>617</v>
@@ -16334,7 +16330,7 @@
         <v>280</v>
       </c>
       <c r="H20" s="277" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I20" s="208"/>
       <c r="J20" s="68"/>
@@ -16356,13 +16352,13 @@
         <v>25</v>
       </c>
       <c r="H21" s="205" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I21" s="206" t="s">
         <v>406</v>
       </c>
       <c r="J21" s="209" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="22" spans="1:10" customFormat="1" ht="31" thickBot="1">
@@ -16382,7 +16378,7 @@
         <v>233</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I22" s="52"/>
       <c r="J22" s="58"/>
@@ -16406,7 +16402,7 @@
         <v>499</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I23" s="67"/>
       <c r="J23" s="58"/>
@@ -16542,7 +16538,7 @@
         <v>39</v>
       </c>
       <c r="H28" s="70" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I28" s="70"/>
       <c r="J28" s="154"/>
@@ -16564,7 +16560,7 @@
         <v>25</v>
       </c>
       <c r="H29" s="281" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I29" s="123" t="s">
         <v>11</v>
@@ -16910,7 +16906,7 @@
         <v>25</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I43" s="43" t="s">
         <v>17</v>
@@ -17016,13 +17012,13 @@
         <v>476</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="48" spans="1:10" customFormat="1" ht="210">
@@ -17034,13 +17030,13 @@
       <c r="F48" s="14"/>
       <c r="G48" s="6"/>
       <c r="H48" s="21" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J48" s="286" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="49" spans="1:10" customFormat="1" ht="90">
@@ -17148,7 +17144,7 @@
         <v>485</v>
       </c>
       <c r="H53" s="148" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>17</v>
@@ -18016,8 +18012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33D4670-3618-B947-8E34-E3DBE4848E0C}">
   <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -18033,17 +18029,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="316" t="s">
-        <v>726</v>
-      </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="316"/>
-      <c r="I1" s="316"/>
+      <c r="A1" s="333" t="s">
+        <v>725</v>
+      </c>
+      <c r="B1" s="333"/>
+      <c r="C1" s="333"/>
+      <c r="D1" s="333"/>
+      <c r="E1" s="333"/>
+      <c r="F1" s="333"/>
+      <c r="G1" s="333"/>
+      <c r="H1" s="333"/>
+      <c r="I1" s="333"/>
     </row>
     <row r="2" spans="1:11" ht="76" thickBot="1">
       <c r="A2" s="190" t="s">
@@ -18086,7 +18082,7 @@
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="193" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H3" s="193"/>
       <c r="I3" s="243" t="s">
@@ -18130,7 +18126,7 @@
         <v>17</v>
       </c>
       <c r="I5" s="153" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="120">
@@ -18149,13 +18145,13 @@
         <v>20</v>
       </c>
       <c r="G6" s="21" t="s">
+        <v>759</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="I6" s="286" t="s">
         <v>760</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="I6" s="286" t="s">
-        <v>761</v>
       </c>
       <c r="K6" s="30"/>
     </row>
@@ -18303,7 +18299,7 @@
       </c>
       <c r="F13" s="199"/>
       <c r="G13" s="219" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H13" s="201"/>
       <c r="I13" s="245"/>
@@ -18341,13 +18337,13 @@
         <v>25</v>
       </c>
       <c r="G15" s="278" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H15" s="206" t="s">
         <v>406</v>
       </c>
       <c r="I15" s="288" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="35" customHeight="1">
@@ -18395,7 +18391,7 @@
         <v>406</v>
       </c>
       <c r="I17" s="207" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="21" thickBot="1">
@@ -18416,7 +18412,7 @@
         <v>442</v>
       </c>
       <c r="G18" s="60" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H18" s="165" t="s">
         <v>617</v>
@@ -18439,7 +18435,7 @@
         <v>280</v>
       </c>
       <c r="G19" s="277" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H19" s="208"/>
       <c r="I19" s="251"/>
@@ -18460,13 +18456,13 @@
         <v>25</v>
       </c>
       <c r="G20" s="205" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H20" s="206" t="s">
         <v>406</v>
       </c>
       <c r="I20" s="253" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="31" thickBot="1">
@@ -18485,7 +18481,7 @@
         <v>233</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H21" s="52"/>
       <c r="I21" s="243"/>
@@ -18508,7 +18504,7 @@
         <v>499</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H22" s="67"/>
       <c r="I22" s="243"/>
@@ -18639,7 +18635,7 @@
         <v>39</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H27" s="70"/>
       <c r="I27" s="154"/>
@@ -18660,7 +18656,7 @@
         <v>25</v>
       </c>
       <c r="G28" s="281" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H28" s="123" t="s">
         <v>11</v>
@@ -18708,7 +18704,7 @@
         <v>485</v>
       </c>
       <c r="G30" s="133" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H30" s="133"/>
       <c r="I30" s="218"/>
@@ -18727,7 +18723,7 @@
         <v>29</v>
       </c>
       <c r="G31" s="215" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H31" s="142" t="s">
         <v>17</v>
@@ -18750,7 +18746,7 @@
         <v>47</v>
       </c>
       <c r="G32" s="116" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H32" s="116"/>
       <c r="I32" s="152"/>
@@ -18771,13 +18767,13 @@
         <v>25</v>
       </c>
       <c r="G33" s="37" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H33" s="43" t="s">
         <v>406</v>
       </c>
       <c r="I33" s="255" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="134" customFormat="1" ht="91" customHeight="1">
@@ -18796,13 +18792,13 @@
         <v>43</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H34" s="43" t="s">
         <v>406</v>
       </c>
       <c r="I34" s="159" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="134" customFormat="1" ht="58" customHeight="1" thickBot="1">
@@ -18821,13 +18817,13 @@
         <v>43</v>
       </c>
       <c r="G35" s="144" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H35" s="142" t="s">
         <v>406</v>
       </c>
       <c r="I35" s="157" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30">
@@ -18844,7 +18840,7 @@
         <v>47</v>
       </c>
       <c r="G36" s="246" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H36" s="246"/>
       <c r="I36" s="251"/>
@@ -18861,11 +18857,11 @@
       <c r="E37" s="271" t="s">
         <v>216</v>
       </c>
-      <c r="G37" s="326" t="s">
-        <v>648</v>
-      </c>
-      <c r="H37" s="323"/>
-      <c r="I37" s="324"/>
+      <c r="G37" s="343" t="s">
+        <v>647</v>
+      </c>
+      <c r="H37" s="340"/>
+      <c r="I37" s="341"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="31" t="s">
@@ -18882,9 +18878,9 @@
       <c r="F38" s="28" t="s">
         <v>499</v>
       </c>
-      <c r="G38" s="327"/>
-      <c r="H38" s="319"/>
-      <c r="I38" s="325"/>
+      <c r="G38" s="344"/>
+      <c r="H38" s="336"/>
+      <c r="I38" s="342"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="31" t="s">
@@ -18903,9 +18899,9 @@
       <c r="F39" s="28" t="s">
         <v>556</v>
       </c>
-      <c r="G39" s="327"/>
-      <c r="H39" s="319"/>
-      <c r="I39" s="325"/>
+      <c r="G39" s="344"/>
+      <c r="H39" s="336"/>
+      <c r="I39" s="342"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="31" t="s">
@@ -18924,9 +18920,9 @@
       <c r="F40" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="G40" s="327"/>
-      <c r="H40" s="319"/>
-      <c r="I40" s="325"/>
+      <c r="G40" s="344"/>
+      <c r="H40" s="336"/>
+      <c r="I40" s="342"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="31" t="s">
@@ -18945,9 +18941,9 @@
       <c r="F41" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="G41" s="327"/>
-      <c r="H41" s="319"/>
-      <c r="I41" s="325"/>
+      <c r="G41" s="344"/>
+      <c r="H41" s="336"/>
+      <c r="I41" s="342"/>
     </row>
     <row r="42" spans="1:9" ht="21" thickBot="1">
       <c r="A42" s="264" t="s">
@@ -18959,14 +18955,14 @@
       <c r="C42" s="220"/>
       <c r="D42" s="220"/>
       <c r="E42" s="240" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F42" s="220" t="s">
         <v>442</v>
       </c>
-      <c r="G42" s="327"/>
-      <c r="H42" s="319"/>
-      <c r="I42" s="325"/>
+      <c r="G42" s="344"/>
+      <c r="H42" s="336"/>
+      <c r="I42" s="342"/>
     </row>
     <row r="43" spans="1:9" ht="86" customHeight="1">
       <c r="A43" s="310" t="s">
@@ -18982,13 +18978,13 @@
         <v>476</v>
       </c>
       <c r="G43" s="311" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H43" s="311" t="s">
         <v>17</v>
       </c>
       <c r="I43" s="313" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="210">
@@ -18999,13 +18995,13 @@
       <c r="E44" s="14"/>
       <c r="F44" s="6"/>
       <c r="G44" s="21" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I44" s="286" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="90">
@@ -19022,7 +19018,7 @@
         <v>477</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>17</v>
@@ -19050,7 +19046,7 @@
     </row>
     <row r="47" spans="1:9" ht="58">
       <c r="A47" s="28" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B47" s="220"/>
       <c r="C47" s="220"/>
@@ -19059,21 +19055,21 @@
         <v>225</v>
       </c>
       <c r="F47" s="28" t="s">
+        <v>652</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="I47" s="245" t="s">
         <v>653</v>
-      </c>
-      <c r="G47" s="29" t="s">
-        <v>655</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="I47" s="245" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="66" customHeight="1">
       <c r="A48" s="249" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B48" s="220"/>
       <c r="C48" s="220"/>
@@ -19082,21 +19078,21 @@
         <v>218</v>
       </c>
       <c r="F48" s="28" t="s">
+        <v>696</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>698</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="I48" s="245" t="s">
         <v>697</v>
-      </c>
-      <c r="G48" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="I48" s="245" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="105">
       <c r="A49" s="221" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
@@ -19106,14 +19102,14 @@
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="29" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H49" s="29"/>
       <c r="I49" s="243"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
@@ -19125,7 +19121,7 @@
         <v>373</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H50" s="29"/>
       <c r="I50" s="243"/>
@@ -19141,10 +19137,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F51" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G51" s="29" t="s">
         <v>659</v>
-      </c>
-      <c r="G51" s="29" t="s">
-        <v>660</v>
       </c>
       <c r="H51" s="29" t="s">
         <v>617</v>
@@ -19156,7 +19152,7 @@
     <row r="52" spans="1:9" ht="60">
       <c r="A52" s="28"/>
       <c r="B52" s="28" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C52" s="28"/>
       <c r="D52" s="28"/>
@@ -19167,13 +19163,13 @@
         <v>414</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H52" s="29" t="s">
         <v>617</v>
       </c>
       <c r="I52" s="243" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -19190,13 +19186,13 @@
         <v>43</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H53" s="29" t="s">
         <v>617</v>
       </c>
       <c r="I53" s="243" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="30">
@@ -19213,13 +19209,13 @@
         <v>556</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H54" s="29" t="s">
         <v>617</v>
       </c>
       <c r="I54" s="256" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -19236,7 +19232,7 @@
         <v>414</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H55" s="29"/>
       <c r="I55" s="243"/>
@@ -19255,7 +19251,7 @@
         <v>47</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H56" s="29"/>
       <c r="I56" s="243"/>
@@ -19291,7 +19287,7 @@
         <v>556</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H58" s="29"/>
       <c r="I58" s="243"/>
@@ -19312,13 +19308,13 @@
         <v>442</v>
       </c>
       <c r="G59" s="29" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H59" s="29" t="s">
         <v>617</v>
       </c>
       <c r="I59" s="243" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -19337,18 +19333,18 @@
         <v>442</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H60" s="29" t="s">
         <v>617</v>
       </c>
       <c r="I60" s="243" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="30">
       <c r="A61" s="28" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
@@ -19360,7 +19356,7 @@
         <v>43</v>
       </c>
       <c r="G61" s="29" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H61" s="29"/>
       <c r="I61" s="243"/>
@@ -19379,7 +19375,7 @@
         <v>365</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H62" s="29"/>
       <c r="I62" s="243"/>
@@ -19398,7 +19394,7 @@
         <v>285</v>
       </c>
       <c r="G63" s="29" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H63" s="29"/>
       <c r="I63" s="243"/>
@@ -19417,7 +19413,7 @@
         <v>105</v>
       </c>
       <c r="G64" s="29" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H64" s="29"/>
       <c r="I64" s="243"/>
@@ -19436,7 +19432,7 @@
         <v>371</v>
       </c>
       <c r="G65" s="29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H65" s="29"/>
       <c r="I65" s="243"/>
@@ -19455,7 +19451,7 @@
         <v>575</v>
       </c>
       <c r="G66" s="29" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H66" s="29"/>
       <c r="I66" s="243"/>
@@ -19474,7 +19470,7 @@
         <v>131</v>
       </c>
       <c r="G67" s="29" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H67" s="29"/>
       <c r="I67" s="243"/>
@@ -19493,7 +19489,7 @@
         <v>83</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H68" s="29"/>
       <c r="I68" s="243"/>
@@ -19512,14 +19508,14 @@
         <v>356</v>
       </c>
       <c r="G69" s="29" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H69" s="29"/>
       <c r="I69" s="243"/>
     </row>
     <row r="70" spans="1:9" ht="75">
       <c r="A70" s="31" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
@@ -19531,7 +19527,7 @@
         <v>47</v>
       </c>
       <c r="G70" s="29" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H70" s="29"/>
       <c r="I70" s="243"/>
@@ -19550,13 +19546,13 @@
         <v>442</v>
       </c>
       <c r="G71" s="29" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H71" s="29" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I71" s="243" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="28">
@@ -19573,7 +19569,7 @@
         <v>47</v>
       </c>
       <c r="G72" s="29" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H72" s="29"/>
       <c r="I72" s="243"/>
@@ -19609,10 +19605,10 @@
         <v>556</v>
       </c>
       <c r="G74" s="29" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H74" s="29" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I74" s="243" t="s">
         <v>601</v>
@@ -19634,13 +19630,13 @@
         <v>442</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I75" s="243" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -19659,13 +19655,13 @@
         <v>442</v>
       </c>
       <c r="G76" s="29" t="s">
+        <v>706</v>
+      </c>
+      <c r="H76" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="I76" s="243" t="s">
         <v>707</v>
-      </c>
-      <c r="H76" s="29" t="s">
-        <v>674</v>
-      </c>
-      <c r="I76" s="243" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -19682,13 +19678,13 @@
         <v>442</v>
       </c>
       <c r="G77" s="29" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H77" s="29" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I77" s="258" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -19743,7 +19739,7 @@
       </c>
       <c r="H80" s="29"/>
       <c r="I80" s="243" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -19798,7 +19794,7 @@
         <v>47</v>
       </c>
       <c r="G83" s="29" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H83" s="29"/>
       <c r="I83" s="243"/>
@@ -19819,7 +19815,7 @@
         <v>43</v>
       </c>
       <c r="G84" s="28" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H84" s="28"/>
       <c r="I84" s="243"/>
@@ -19838,7 +19834,7 @@
         <v>581</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>17</v>
@@ -19855,18 +19851,18 @@
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="30">
       <c r="A87" s="31" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
@@ -19878,7 +19874,7 @@
         <v>136</v>
       </c>
       <c r="G87" s="29" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H87" s="29"/>
       <c r="I87" s="243"/>
@@ -20015,14 +20011,14 @@
         <v>488</v>
       </c>
       <c r="G94" s="29" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H94" s="29"/>
       <c r="I94" s="243"/>
     </row>
     <row r="95" spans="1:9" ht="165">
       <c r="A95" s="31" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -20031,16 +20027,16 @@
         <v>19</v>
       </c>
       <c r="F95" s="28" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="120">
@@ -20057,7 +20053,7 @@
         <v>136</v>
       </c>
       <c r="G96" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H96" s="29"/>
       <c r="I96" s="243"/>
@@ -20341,7 +20337,7 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:I6"/>
+      <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -20357,17 +20353,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="316" t="s">
-        <v>726</v>
-      </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="316"/>
-      <c r="I1" s="316"/>
+      <c r="A1" s="333" t="s">
+        <v>725</v>
+      </c>
+      <c r="B1" s="333"/>
+      <c r="C1" s="333"/>
+      <c r="D1" s="333"/>
+      <c r="E1" s="333"/>
+      <c r="F1" s="333"/>
+      <c r="G1" s="333"/>
+      <c r="H1" s="333"/>
+      <c r="I1" s="333"/>
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="166" t="s">
@@ -20429,7 +20425,7 @@
         <v>280</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H4" s="165"/>
       <c r="I4" s="61"/>
@@ -22258,61 +22254,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3324F69-8E84-A848-A7FF-2D5A2318CA27}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="125" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A57" zoomScale="125" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="339" customWidth="1"/>
-    <col min="2" max="4" width="7.85546875" style="339" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="339" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="339" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" style="339" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="339" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="345" customWidth="1"/>
-    <col min="10" max="16384" width="10.7109375" style="339"/>
+    <col min="1" max="1" width="11.42578125" style="326" customWidth="1"/>
+    <col min="2" max="4" width="7.85546875" style="326" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="326" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="326" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" style="326" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="326" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="332" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="326"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51" customHeight="1" thickBot="1">
-      <c r="A1" s="338" t="s">
-        <v>726</v>
-      </c>
-      <c r="B1" s="338"/>
-      <c r="C1" s="338"/>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="338"/>
-      <c r="G1" s="338"/>
-      <c r="H1" s="338"/>
-      <c r="I1" s="338"/>
+      <c r="A1" s="345" t="s">
+        <v>725</v>
+      </c>
+      <c r="B1" s="345"/>
+      <c r="C1" s="345"/>
+      <c r="D1" s="345"/>
+      <c r="E1" s="345"/>
+      <c r="F1" s="345"/>
+      <c r="G1" s="345"/>
+      <c r="H1" s="345"/>
+      <c r="I1" s="345"/>
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="328" t="s">
+      <c r="B2" s="316" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="328" t="s">
+      <c r="C2" s="316" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="328" t="s">
+      <c r="D2" s="316" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="329" t="s">
+      <c r="E2" s="317" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="328" t="s">
+      <c r="F2" s="316" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="328" t="s">
+      <c r="G2" s="316" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="328" t="s">
+      <c r="H2" s="316" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="330" t="s">
+      <c r="I2" s="318" t="s">
         <v>8</v>
       </c>
     </row>
@@ -22323,18 +22319,18 @@
       <c r="B3" s="259"/>
       <c r="C3" s="259"/>
       <c r="D3" s="259"/>
-      <c r="E3" s="331" t="s">
+      <c r="E3" s="319" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="259"/>
-      <c r="G3" s="332" t="s">
-        <v>766</v>
+      <c r="G3" s="320" t="s">
+        <v>765</v>
       </c>
       <c r="H3" s="259" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="333" t="s">
-        <v>767</v>
+      <c r="I3" s="321" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -22344,7 +22340,7 @@
       <c r="B4" s="259"/>
       <c r="C4" s="259"/>
       <c r="D4" s="259"/>
-      <c r="E4" s="334" t="s">
+      <c r="E4" s="322" t="s">
         <v>218</v>
       </c>
       <c r="F4" s="259" t="s">
@@ -22354,7 +22350,7 @@
         <v>172</v>
       </c>
       <c r="H4" s="259"/>
-      <c r="I4" s="333"/>
+      <c r="I4" s="321"/>
     </row>
     <row r="5" spans="1:9" ht="255">
       <c r="A5" s="211" t="s">
@@ -22365,7 +22361,7 @@
       </c>
       <c r="C5" s="259"/>
       <c r="D5" s="259"/>
-      <c r="E5" s="334" t="s">
+      <c r="E5" s="322" t="s">
         <v>218</v>
       </c>
       <c r="F5" s="259" t="s">
@@ -22377,7 +22373,7 @@
       <c r="H5" s="259" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="333" t="s">
+      <c r="I5" s="321" t="s">
         <v>18</v>
       </c>
     </row>
@@ -22390,25 +22386,25 @@
       </c>
       <c r="C6" s="259"/>
       <c r="D6" s="259"/>
-      <c r="E6" s="335" t="s">
+      <c r="E6" s="323" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="259" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="336" t="s">
+      <c r="G6" s="324" t="s">
+        <v>767</v>
+      </c>
+      <c r="H6" s="259" t="s">
+        <v>724</v>
+      </c>
+      <c r="I6" s="325" t="s">
         <v>768</v>
       </c>
-      <c r="H6" s="259" t="s">
-        <v>725</v>
-      </c>
-      <c r="I6" s="337" t="s">
-        <v>769</v>
-      </c>
     </row>
     <row r="7" spans="1:9" ht="30">
-      <c r="A7" s="340" t="s">
-        <v>847</v>
+      <c r="A7" s="327" t="s">
+        <v>846</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -22420,14 +22416,14 @@
         <v>39</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="333"/>
+      <c r="I7" s="321"/>
     </row>
     <row r="8" spans="1:9" ht="45">
-      <c r="A8" s="340" t="s">
-        <v>867</v>
+      <c r="A8" s="327" t="s">
+        <v>866</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>24</v>
@@ -22439,18 +22435,18 @@
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="29" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>725</v>
-      </c>
-      <c r="I8" s="333" t="s">
-        <v>770</v>
+        <v>724</v>
+      </c>
+      <c r="I8" s="321" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="340" t="s">
-        <v>868</v>
+      <c r="A9" s="327" t="s">
+        <v>867</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>42</v>
@@ -22462,117 +22458,117 @@
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="29" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>674</v>
-      </c>
-      <c r="I9" s="333" t="s">
+        <v>673</v>
+      </c>
+      <c r="I9" s="321" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="45">
-      <c r="A10" s="340" t="s">
+      <c r="A10" s="327" t="s">
         <v>266</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
-      <c r="E10" s="341" t="s">
+      <c r="E10" s="328" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>725</v>
-      </c>
-      <c r="I10" s="333" t="s">
+        <v>724</v>
+      </c>
+      <c r="I10" s="321" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="327" t="s">
         <v>771</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="340" t="s">
-        <v>772</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
-      <c r="E11" s="341" t="s">
+      <c r="E11" s="328" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="29" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="333"/>
+      <c r="I11" s="321"/>
     </row>
     <row r="12" spans="1:9" ht="45">
-      <c r="A12" s="340" t="s">
-        <v>772</v>
+      <c r="A12" s="327" t="s">
+        <v>771</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
-      <c r="E12" s="341" t="s">
+      <c r="E12" s="328" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="29" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>725</v>
-      </c>
-      <c r="I12" s="333" t="s">
-        <v>774</v>
+        <v>724</v>
+      </c>
+      <c r="I12" s="321" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="60">
-      <c r="A13" s="340" t="s">
-        <v>772</v>
+      <c r="A13" s="327" t="s">
+        <v>771</v>
       </c>
       <c r="B13" s="29" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="341" t="s">
+      <c r="E13" s="328" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H13" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="I13" s="333" t="s">
-        <v>821</v>
+      <c r="I13" s="321" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="340" t="s">
-        <v>772</v>
+      <c r="A14" s="327" t="s">
+        <v>771</v>
       </c>
       <c r="B14" s="29" t="s">
         <v>141</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
-      <c r="E14" s="341" t="s">
+      <c r="E14" s="328" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="29" t="s">
@@ -22582,13 +22578,13 @@
       <c r="H14" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="I14" s="333" t="s">
-        <v>850</v>
+      <c r="I14" s="321" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45">
-      <c r="A15" s="340" t="s">
-        <v>843</v>
+      <c r="A15" s="327" t="s">
+        <v>842</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -22598,17 +22594,17 @@
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H15" s="29"/>
-      <c r="I15" s="333"/>
+      <c r="I15" s="321"/>
     </row>
     <row r="16" spans="1:9" ht="34" customHeight="1">
-      <c r="A16" s="340" t="s">
-        <v>844</v>
+      <c r="A16" s="327" t="s">
+        <v>843</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -22619,17 +22615,17 @@
         <v>22</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H16" s="29"/>
-      <c r="I16" s="333"/>
+      <c r="I16" s="321"/>
     </row>
     <row r="17" spans="1:9" ht="45">
-      <c r="A17" s="340" t="s">
-        <v>845</v>
+      <c r="A17" s="327" t="s">
+        <v>844</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>24</v>
@@ -22642,21 +22638,21 @@
         <v>25</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>725</v>
-      </c>
-      <c r="I17" s="333" t="s">
-        <v>774</v>
+        <v>724</v>
+      </c>
+      <c r="I17" s="321" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="75">
-      <c r="A18" s="340" t="s">
-        <v>845</v>
+      <c r="A18" s="327" t="s">
+        <v>844</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>29</v>
@@ -22667,19 +22663,19 @@
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="29" t="s">
+        <v>851</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="321" t="s">
         <v>852</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="333" t="s">
-        <v>853</v>
-      </c>
     </row>
     <row r="19" spans="1:9" ht="26" customHeight="1">
-      <c r="A19" s="340" t="s">
-        <v>845</v>
+      <c r="A19" s="327" t="s">
+        <v>844</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>141</v>
@@ -22691,16 +22687,16 @@
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
-      <c r="I19" s="333" t="s">
-        <v>854</v>
+      <c r="I19" s="321" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30">
-      <c r="A20" s="340" t="s">
-        <v>845</v>
+      <c r="A20" s="327" t="s">
+        <v>844</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
@@ -22709,17 +22705,17 @@
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H20" s="29"/>
-      <c r="I20" s="333"/>
+      <c r="I20" s="321"/>
     </row>
     <row r="21" spans="1:9" ht="45">
-      <c r="A21" s="340" t="s">
-        <v>845</v>
+      <c r="A21" s="327" t="s">
+        <v>844</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>100</v>
@@ -22732,19 +22728,19 @@
         <v>83</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H21" s="29"/>
-      <c r="I21" s="333" t="s">
+      <c r="I21" s="321" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30">
-      <c r="A22" s="340" t="s">
-        <v>845</v>
+      <c r="A22" s="327" t="s">
+        <v>844</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>102</v>
@@ -22757,16 +22753,16 @@
         <v>83</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H22" s="29"/>
-      <c r="I22" s="333" t="s">
-        <v>777</v>
+      <c r="I22" s="321" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="340" t="s">
-        <v>775</v>
+      <c r="A23" s="327" t="s">
+        <v>774</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -22775,17 +22771,17 @@
         <v>46</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H23" s="29"/>
-      <c r="I23" s="333"/>
+      <c r="I23" s="321"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="340" t="s">
-        <v>775</v>
+      <c r="A24" s="327" t="s">
+        <v>774</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>100</v>
@@ -22799,16 +22795,16 @@
         <v>83</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H24" s="29"/>
-      <c r="I24" s="333" t="s">
-        <v>869</v>
+      <c r="I24" s="321" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="340" t="s">
-        <v>775</v>
+      <c r="A25" s="327" t="s">
+        <v>774</v>
       </c>
       <c r="B25" s="29" t="s">
         <v>102</v>
@@ -22822,16 +22818,16 @@
         <v>83</v>
       </c>
       <c r="G25" s="29" t="s">
+        <v>781</v>
+      </c>
+      <c r="H25" s="29"/>
+      <c r="I25" s="321" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="327" t="s">
         <v>782</v>
-      </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="333" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="340" t="s">
-        <v>783</v>
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
@@ -22843,14 +22839,14 @@
         <v>358</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H26" s="29"/>
-      <c r="I26" s="333"/>
+      <c r="I26" s="321"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="340" t="s">
-        <v>783</v>
+      <c r="A27" s="327" t="s">
+        <v>782</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>42</v>
@@ -22864,16 +22860,16 @@
         <v>88</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H27" s="29"/>
-      <c r="I27" s="333">
+      <c r="I27" s="321">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="340" t="s">
-        <v>783</v>
+      <c r="A28" s="327" t="s">
+        <v>782</v>
       </c>
       <c r="B28" s="29" t="s">
         <v>93</v>
@@ -22887,16 +22883,16 @@
         <v>43</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H28" s="29"/>
-      <c r="I28" s="333" t="s">
-        <v>855</v>
+      <c r="I28" s="321" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="24" customHeight="1">
-      <c r="A29" s="340" t="s">
-        <v>783</v>
+      <c r="A29" s="327" t="s">
+        <v>782</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>24</v>
@@ -22910,16 +22906,16 @@
         <v>25</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H29" s="29"/>
-      <c r="I29" s="333" t="s">
+      <c r="I29" s="321" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="340" t="s">
-        <v>783</v>
+      <c r="A30" s="327" t="s">
+        <v>782</v>
       </c>
       <c r="B30" s="29" t="s">
         <v>29</v>
@@ -22933,39 +22929,39 @@
         <v>29</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H30" s="29"/>
-      <c r="I30" s="333" t="s">
+      <c r="I30" s="321" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="135">
-      <c r="A31" s="340" t="s">
-        <v>842</v>
+      <c r="A31" s="327" t="s">
+        <v>841</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
-      <c r="E31" s="342" t="s">
+      <c r="E31" s="329" t="s">
         <v>232</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>47</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>674</v>
-      </c>
-      <c r="I31" s="343" t="s">
-        <v>832</v>
+        <v>673</v>
+      </c>
+      <c r="I31" s="330" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="340" t="s">
-        <v>838</v>
+      <c r="A32" s="327" t="s">
+        <v>837</v>
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
@@ -22975,17 +22971,17 @@
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="29" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H32" s="29"/>
-      <c r="I32" s="333"/>
+      <c r="I32" s="321"/>
     </row>
     <row r="33" spans="1:9" ht="30">
-      <c r="A33" s="340" t="s">
-        <v>839</v>
+      <c r="A33" s="327" t="s">
+        <v>838</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
@@ -22993,20 +22989,20 @@
         <v>10</v>
       </c>
       <c r="F33" s="29" t="s">
+        <v>787</v>
+      </c>
+      <c r="G33" s="29" t="s">
         <v>788</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="H33" s="29"/>
+      <c r="I33" s="321"/>
+    </row>
+    <row r="34" spans="1:9" ht="90">
+      <c r="A34" s="327" t="s">
+        <v>839</v>
+      </c>
+      <c r="B34" s="29" t="s">
         <v>789</v>
-      </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="333"/>
-    </row>
-    <row r="34" spans="1:9" ht="90">
-      <c r="A34" s="340" t="s">
-        <v>840</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>790</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
@@ -23017,17 +23013,17 @@
         <v>47</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H34" s="29"/>
-      <c r="I34" s="333"/>
+      <c r="I34" s="321"/>
     </row>
     <row r="35" spans="1:9" ht="30">
-      <c r="A35" s="340" t="s">
+      <c r="A35" s="327" t="s">
+        <v>839</v>
+      </c>
+      <c r="B35" s="29" t="s">
         <v>840</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>841</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>409</v>
@@ -23038,17 +23034,17 @@
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="29" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H35" s="29"/>
-      <c r="I35" s="333"/>
+      <c r="I35" s="321"/>
     </row>
     <row r="36" spans="1:9" ht="30">
-      <c r="A36" s="340" t="s">
-        <v>840</v>
+      <c r="A36" s="327" t="s">
+        <v>839</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>410</v>
@@ -23061,19 +23057,19 @@
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="29" t="s">
+        <v>857</v>
+      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="321" t="s">
         <v>858</v>
       </c>
-      <c r="H36" s="29"/>
-      <c r="I36" s="333" t="s">
-        <v>859</v>
-      </c>
     </row>
     <row r="37" spans="1:9" ht="45">
-      <c r="A37" s="340" t="s">
-        <v>840</v>
+      <c r="A37" s="327" t="s">
+        <v>839</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>411</v>
@@ -23086,19 +23082,19 @@
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="29" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H37" s="29"/>
-      <c r="I37" s="333" t="s">
-        <v>792</v>
+      <c r="I37" s="321" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="340" t="s">
-        <v>840</v>
+      <c r="A38" s="327" t="s">
+        <v>839</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>411</v>
@@ -23111,19 +23107,19 @@
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="29" t="s">
+        <v>792</v>
+      </c>
+      <c r="H38" s="29"/>
+      <c r="I38" s="321" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30">
+      <c r="A39" s="327" t="s">
+        <v>839</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>793</v>
-      </c>
-      <c r="H38" s="29"/>
-      <c r="I38" s="333" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="30">
-      <c r="A39" s="340" t="s">
-        <v>840</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>794</v>
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
@@ -23131,19 +23127,19 @@
         <v>46</v>
       </c>
       <c r="F39" s="29" t="s">
+        <v>794</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>861</v>
+      </c>
+      <c r="H39" s="29"/>
+      <c r="I39" s="321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30">
+      <c r="A40" s="327" t="s">
         <v>795</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>862</v>
-      </c>
-      <c r="H39" s="29"/>
-      <c r="I39" s="333">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="30">
-      <c r="A40" s="340" t="s">
-        <v>796</v>
       </c>
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
@@ -23155,17 +23151,17 @@
         <v>136</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H40" s="29"/>
-      <c r="I40" s="333"/>
+      <c r="I40" s="321"/>
     </row>
     <row r="41" spans="1:9" ht="60">
-      <c r="A41" s="340" t="s">
+      <c r="A41" s="327" t="s">
+        <v>795</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>796</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>797</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
@@ -23173,20 +23169,20 @@
         <v>46</v>
       </c>
       <c r="F41" s="29" t="s">
+        <v>797</v>
+      </c>
+      <c r="G41" s="29" t="s">
         <v>798</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="H41" s="29"/>
+      <c r="I41" s="321"/>
+    </row>
+    <row r="42" spans="1:9" ht="135">
+      <c r="A42" s="327" t="s">
+        <v>795</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>799</v>
-      </c>
-      <c r="H41" s="29"/>
-      <c r="I41" s="333"/>
-    </row>
-    <row r="42" spans="1:9" ht="135">
-      <c r="A42" s="340" t="s">
-        <v>796</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>800</v>
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
@@ -23197,21 +23193,21 @@
         <v>47</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>690</v>
-      </c>
-      <c r="I42" s="343" t="s">
-        <v>830</v>
+        <v>689</v>
+      </c>
+      <c r="I42" s="330" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="30">
-      <c r="A43" s="340" t="s">
-        <v>796</v>
+      <c r="A43" s="327" t="s">
+        <v>795</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
@@ -23222,17 +23218,17 @@
         <v>47</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H43" s="29"/>
-      <c r="I43" s="333"/>
+      <c r="I43" s="321"/>
     </row>
     <row r="44" spans="1:9" ht="30">
-      <c r="A44" s="340" t="s">
-        <v>796</v>
+      <c r="A44" s="327" t="s">
+        <v>795</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
@@ -23243,17 +23239,17 @@
         <v>47</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H44" s="29"/>
-      <c r="I44" s="333"/>
+      <c r="I44" s="321"/>
     </row>
     <row r="45" spans="1:9" ht="30">
-      <c r="A45" s="340" t="s">
-        <v>796</v>
+      <c r="A45" s="327" t="s">
+        <v>795</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
@@ -23264,17 +23260,17 @@
         <v>47</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H45" s="29"/>
-      <c r="I45" s="333"/>
+      <c r="I45" s="321"/>
     </row>
     <row r="46" spans="1:9" ht="60">
-      <c r="A46" s="340" t="s">
-        <v>796</v>
+      <c r="A46" s="327" t="s">
+        <v>795</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
@@ -23282,20 +23278,20 @@
         <v>46</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G46" s="29" t="s">
+        <v>804</v>
+      </c>
+      <c r="H46" s="29"/>
+      <c r="I46" s="321"/>
+    </row>
+    <row r="47" spans="1:9" ht="135">
+      <c r="A47" s="327" t="s">
+        <v>795</v>
+      </c>
+      <c r="B47" s="29" t="s">
         <v>805</v>
-      </c>
-      <c r="H46" s="29"/>
-      <c r="I46" s="333"/>
-    </row>
-    <row r="47" spans="1:9" ht="135">
-      <c r="A47" s="340" t="s">
-        <v>796</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>806</v>
       </c>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
@@ -23306,16 +23302,16 @@
         <v>47</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H47" s="29"/>
-      <c r="I47" s="343" t="s">
-        <v>831</v>
+      <c r="I47" s="330" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="30">
-      <c r="A48" s="340" t="s">
-        <v>835</v>
+      <c r="A48" s="327" t="s">
+        <v>834</v>
       </c>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
@@ -23327,17 +23323,17 @@
         <v>136</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H48" s="29"/>
-      <c r="I48" s="333"/>
+      <c r="I48" s="321"/>
     </row>
     <row r="49" spans="1:9" ht="30">
-      <c r="A49" s="340" t="s">
-        <v>836</v>
+      <c r="A49" s="327" t="s">
+        <v>835</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
@@ -23345,17 +23341,17 @@
         <v>46</v>
       </c>
       <c r="F49" s="29" t="s">
+        <v>807</v>
+      </c>
+      <c r="G49" s="29" t="s">
         <v>808</v>
       </c>
-      <c r="G49" s="29" t="s">
-        <v>809</v>
-      </c>
       <c r="H49" s="29"/>
-      <c r="I49" s="333"/>
+      <c r="I49" s="321"/>
     </row>
     <row r="50" spans="1:9" ht="30">
-      <c r="A50" s="340" t="s">
-        <v>837</v>
+      <c r="A50" s="327" t="s">
+        <v>836</v>
       </c>
       <c r="B50" s="29" t="s">
         <v>266</v>
@@ -23369,21 +23365,21 @@
         <v>29</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>674</v>
-      </c>
-      <c r="I50" s="333" t="s">
+        <v>673</v>
+      </c>
+      <c r="I50" s="321" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="90">
+      <c r="A51" s="327" t="s">
+        <v>836</v>
+      </c>
+      <c r="B51" s="29" t="s">
         <v>810</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="90">
-      <c r="A51" s="340" t="s">
-        <v>837</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>811</v>
       </c>
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
@@ -23394,21 +23390,21 @@
         <v>47</v>
       </c>
       <c r="G51" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="H51" s="29" t="s">
         <v>825</v>
       </c>
-      <c r="H51" s="29" t="s">
-        <v>826</v>
-      </c>
-      <c r="I51" s="333" t="s">
+      <c r="I51" s="321" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="327" t="s">
+        <v>836</v>
+      </c>
+      <c r="B52" s="29" t="s">
         <v>812</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="340" t="s">
-        <v>837</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>813</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
@@ -23419,17 +23415,17 @@
         <v>356</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H52" s="29"/>
-      <c r="I52" s="333"/>
+      <c r="I52" s="321"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="340" t="s">
-        <v>837</v>
+      <c r="A53" s="327" t="s">
+        <v>836</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C53" s="29" t="s">
         <v>100</v>
@@ -23442,17 +23438,17 @@
         <v>83</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H53" s="29"/>
-      <c r="I53" s="333"/>
+      <c r="I53" s="321"/>
     </row>
     <row r="54" spans="1:9" ht="16" thickBot="1">
-      <c r="A54" s="340" t="s">
-        <v>837</v>
+      <c r="A54" s="327" t="s">
+        <v>836</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C54" s="34" t="s">
         <v>102</v>
@@ -23465,10 +23461,10 @@
         <v>83</v>
       </c>
       <c r="G54" s="34" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H54" s="34"/>
-      <c r="I54" s="344"/>
+      <c r="I54" s="331"/>
     </row>
   </sheetData>
   <mergeCells count="1">
